--- a/__repository/test/new_siteprogress.xlsx
+++ b/__repository/test/new_siteprogress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -110,34 +110,22 @@
     <t>TEMPLATE UPLOAD SITE PROGRESS</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>jkl</t>
   </si>
   <si>
-    <t>mno</t>
-  </si>
-  <si>
     <t>zxc</t>
   </si>
   <si>
     <t>asdf</t>
   </si>
   <si>
-    <t>qwer</t>
-  </si>
-  <si>
-    <t>27NEWCJ0005</t>
-  </si>
-  <si>
-    <t>27NEWCJ0006</t>
-  </si>
-  <si>
-    <t>27NEWCJ0007</t>
-  </si>
-  <si>
-    <t>asdfgfghjkkllk</t>
+    <t>2GNEW0001</t>
+  </si>
+  <si>
+    <t>2GNEW0002</t>
+  </si>
+  <si>
+    <t>2GNEW0003</t>
   </si>
 </sst>
 </file>
@@ -238,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,7 +240,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
@@ -548,7 +535,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,20 +552,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -664,174 +651,174 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="I6" s="7">
+        <v>42653</v>
+      </c>
+      <c r="J6" s="7">
+        <v>42654</v>
+      </c>
+      <c r="K6" s="7">
+        <v>42655</v>
+      </c>
+      <c r="L6" s="7">
+        <v>42656</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42657</v>
+      </c>
+      <c r="N6" s="7">
+        <v>42658</v>
+      </c>
+      <c r="O6" s="7">
+        <v>42659</v>
+      </c>
+      <c r="P6" s="7">
+        <v>42660</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>42661</v>
+      </c>
+      <c r="R6" s="7">
+        <v>42662</v>
+      </c>
+      <c r="S6" s="7">
+        <v>42663</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="8">
-        <v>42663</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="U6" s="6">
         <v>42664</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="7">
+        <v>42654</v>
+      </c>
+      <c r="J7" s="7">
+        <v>42655</v>
+      </c>
+      <c r="K7" s="7">
+        <v>42656</v>
+      </c>
+      <c r="L7" s="7">
+        <v>42657</v>
+      </c>
+      <c r="M7" s="7">
+        <v>42658</v>
+      </c>
+      <c r="N7" s="7">
+        <v>42659</v>
+      </c>
+      <c r="O7" s="7">
+        <v>42660</v>
+      </c>
+      <c r="P7" s="7">
+        <v>42661</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>42662</v>
+      </c>
+      <c r="R7" s="7">
+        <v>42663</v>
+      </c>
+      <c r="S7" s="7">
+        <v>42664</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="8">
-        <v>42664</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="U7" s="6">
         <v>42665</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="7">
+        <v>42655</v>
+      </c>
+      <c r="J8" s="7">
+        <v>42656</v>
+      </c>
+      <c r="K8" s="7">
+        <v>42657</v>
+      </c>
+      <c r="L8" s="7">
+        <v>42658</v>
+      </c>
+      <c r="M8" s="7">
+        <v>42659</v>
+      </c>
+      <c r="N8" s="7">
+        <v>42660</v>
+      </c>
+      <c r="O8" s="7">
+        <v>42661</v>
+      </c>
+      <c r="P8" s="7">
+        <v>42662</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>42663</v>
+      </c>
+      <c r="R8" s="7">
+        <v>42664</v>
+      </c>
+      <c r="S8" s="7">
+        <v>42665</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="8">
-        <v>42665</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="U8" s="6">
         <v>42666</v>
       </c>
       <c r="V8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/__repository/test/new_siteprogress.xlsx
+++ b/__repository/test/new_siteprogress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>2GNEW0003</t>
+  </si>
+  <si>
+    <t>2GNEW0004</t>
+  </si>
+  <si>
+    <t>2GNEW0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,6 +830,111 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="J9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="K9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="L9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="M9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="N9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="O9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="P9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="R9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="S9" s="7">
+        <v>42656</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="6">
+        <v>42667</v>
+      </c>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="J10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="K10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="L10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="M10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="N10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="O10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="P10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="R10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="S10" s="7">
+        <v>42657</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="6">
+        <v>42668</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
